--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544294.438717561</v>
+        <v>-2546908.717334014</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.2146126744141</v>
@@ -677,7 +677,7 @@
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783174</v>
+        <v>115.8619247783173</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>4.949902002001096</v>
       </c>
       <c r="U2" t="n">
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>9.437875643706203</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.1103483761872</v>
+        <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>100.3033462869334</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.62686443516898</v>
+        <v>94.83943180792917</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>108.7920545143681</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222615</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>192.9533909753964</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>114.2656173771021</v>
+        <v>44.17904656871159</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7944255145766</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.3393327866113</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>101.1471539705512</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>109.8578268062638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715718</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428156</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>147.689534148736</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.20606459030849</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>80.33989744908932</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.029198051761</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012167</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.3679902607848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972046</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.425007896998</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541837</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652562</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1994.490535003341</v>
+        <v>1888.36784735734</v>
       </c>
       <c r="C2" t="n">
-        <v>1625.528018062929</v>
+        <v>1519.405330416928</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.528018062929</v>
+        <v>1161.139631810177</v>
       </c>
       <c r="E2" t="n">
-        <v>1239.739765464685</v>
+        <v>775.3513792119329</v>
       </c>
       <c r="F2" t="n">
-        <v>828.753860675077</v>
+        <v>775.3513792119329</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443556</v>
+        <v>359.9830835812115</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447435</v>
+        <v>520.574560644744</v>
       </c>
       <c r="L2" t="n">
         <v>925.8512030185029</v>
@@ -4349,31 +4349,31 @@
         <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719472</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338331</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152598</v>
+        <v>2846.450637326211</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788377</v>
+        <v>2592.89649296199</v>
       </c>
       <c r="V2" t="n">
-        <v>2390.623582788377</v>
+        <v>2261.833605618419</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.090375067462</v>
+        <v>2261.833605618419</v>
       </c>
       <c r="X2" t="n">
-        <v>2381.090375067462</v>
+        <v>1888.36784735734</v>
       </c>
       <c r="Y2" t="n">
-        <v>2381.090375067462</v>
+        <v>1888.36784735734</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>73.59886104182668</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J3" t="n">
-        <v>263.2196007018999</v>
+        <v>170.1607778874514</v>
       </c>
       <c r="K3" t="n">
-        <v>476.4318839038949</v>
+        <v>383.3730610894465</v>
       </c>
       <c r="L3" t="n">
-        <v>809.4446518541373</v>
+        <v>716.385829039689</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.036801468466</v>
+        <v>1124.35289021237</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.210181722258</v>
+        <v>1557.526270466162</v>
       </c>
       <c r="O3" t="n">
-        <v>2104.259402166788</v>
+        <v>1931.575490910692</v>
       </c>
       <c r="P3" t="n">
-        <v>2385.133812092034</v>
+        <v>2212.449900835938</v>
       </c>
       <c r="Q3" t="n">
-        <v>2522.971720424101</v>
+        <v>2558.264324026496</v>
       </c>
       <c r="R3" t="n">
         <v>2558.264324026496</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.9715967874129</v>
+        <v>1803.901588687141</v>
       </c>
       <c r="C4" t="n">
-        <v>626.035413859506</v>
+        <v>1634.965405759234</v>
       </c>
       <c r="D4" t="n">
-        <v>475.9187744471703</v>
+        <v>1484.848766346898</v>
       </c>
       <c r="E4" t="n">
-        <v>475.9187744471703</v>
+        <v>1484.848766346898</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9187744471703</v>
+        <v>1337.958818848988</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>1337.958818848988</v>
       </c>
       <c r="H4" t="n">
-        <v>160.6861671127259</v>
+        <v>1337.958818848988</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178315</v>
+        <v>1236.642307448045</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945986</v>
+        <v>1272.569327125722</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>1461.445293514083</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>1758.66793737489</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>2082.436664730858</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>2403.941511830842</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680607</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.763680026543</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="R4" t="n">
-        <v>1714.819361696161</v>
+        <v>2872.685379722564</v>
       </c>
       <c r="S4" t="n">
-        <v>1714.819361696161</v>
+        <v>2678.686790229446</v>
       </c>
       <c r="T4" t="n">
-        <v>1714.819361696161</v>
+        <v>2568.795826073519</v>
       </c>
       <c r="U4" t="n">
-        <v>1714.819361696161</v>
+        <v>2568.795826073519</v>
       </c>
       <c r="V4" t="n">
-        <v>1714.819361696161</v>
+        <v>2314.111337867632</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.4021916592</v>
+        <v>2024.694167830671</v>
       </c>
       <c r="X4" t="n">
-        <v>1197.412640761183</v>
+        <v>2024.694167830671</v>
       </c>
       <c r="Y4" t="n">
-        <v>976.6200616176526</v>
+        <v>1803.901588687141</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.376265094905</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>764.3411331473114</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>378.5528805490672</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3020.412738009603</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>2689.349850666033</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2336.581195395918</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X5" t="n">
-        <v>1963.115437134838</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1572.976105159027</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1722.044275313594</v>
+        <v>1660.902633093664</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>1406.218144887777</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1406.218144887777</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1178.22859398976</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>957.4360148462299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4878,43 +4878,43 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.4387267498528</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610488</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046014</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>859.0871915800925</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>859.0871915800925</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.0871915800925</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740071</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270442</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703107</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.928827395873</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679661</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,25 +5677,25 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.35942226766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261127</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,10 +5908,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2337.284991357603</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.608299724743</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.923811518856</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.506641481895</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.517090583878</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778174</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>788.0191461778174</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150023</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,16 +6643,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7105,7 +7105,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>32.0922244167234</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.42938226429101</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>9.872575263447089</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>200.2501810718744</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>339.8030930737068</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.21256737276022</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>111.3182415460317</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124966</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194233</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9259388694763118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.8202214113358</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.21666309131001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26314,13 +26314,13 @@
         <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
@@ -26335,16 +26335,16 @@
         <v>20178.66499225014</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26353,7 +26353,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871473</v>
+        <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973094</v>
+        <v>95186.49343973093</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359976</v>
+        <v>22978.01038359961</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15667.67952732126</v>
+        <v>15667.67952732124</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,7 +26430,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,19 +26439,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488704</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488698</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209745</v>
+        <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1328974.703139051</v>
+        <v>-1329404.26200564</v>
       </c>
       <c r="C6" t="n">
         <v>-272948.4567776619</v>
@@ -26528,22 +26528,22 @@
         <v>-177761.963337931</v>
       </c>
       <c r="E6" t="n">
-        <v>-417523.3588908059</v>
+        <v>-417558.0968162414</v>
       </c>
       <c r="F6" t="n">
-        <v>-92110.89708345047</v>
+        <v>-92145.63500888617</v>
       </c>
       <c r="G6" t="n">
-        <v>-92110.89708345049</v>
+        <v>-92145.63500888619</v>
       </c>
       <c r="H6" t="n">
-        <v>-92110.89708345047</v>
+        <v>-92145.63500888618</v>
       </c>
       <c r="I6" t="n">
-        <v>-92110.89708345049</v>
+        <v>-92145.63500888618</v>
       </c>
       <c r="J6" t="n">
-        <v>-315395.1086039994</v>
+        <v>-315395.1086039996</v>
       </c>
       <c r="K6" t="n">
         <v>-124773.973505795</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
@@ -26716,10 +26716,10 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203972</v>
@@ -26738,7 +26738,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646396983</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.87741491945</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>58.04178098350556</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>171.9462208285108</v>
+        <v>242.0327916369013</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>74.44654320283644</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>111.8986058694423</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>45.28680867601793</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>176.6651715303272</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.6556266698102</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224528</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541503</v>
+        <v>0.1439039227541504</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,28 +31197,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.833792064823379</v>
+        <v>1.83379206482338</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585707</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795411</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735286</v>
+        <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435522</v>
+        <v>111.9102244198669</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>215.3659426282779</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>492.5173228427566</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>349.3074981722804</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.783804432688</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868046</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066244</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111711</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>433.4611020691866</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
